--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2052251.710070607</v>
+        <v>2084829.924585806</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>178.157313031983</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>190.1066023865956</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>145.5147652547678</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>238.5634410073764</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>237.3811362441418</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>134.0342556893562</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.4745897976403</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>215.9776011748348</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>215.9776011748348</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1734,7 +1736,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1743,16 +1745,16 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>135.3066150601237</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>48.37669028362031</v>
       </c>
     </row>
     <row r="16">
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>43.58935820548816</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.6077575056603</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>78.70529233151306</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.5289465722275</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9216174196134</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>156.5325628886545</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>103.300070784217</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>61.12808787351286</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>56.23659934395587</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>183.1212231891129</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>263.5127075314954</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>12.9608781146568</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.01575005805863</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>180.8778284652363</v>
+        <v>34.44958836193425</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2651,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.049743378592401</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,7 +2687,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>154.9157329491105</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41.63075220784336</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.2265924536926</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>191.3427905487006</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2846,13 +2848,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>47.57524030408218</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>155.4595575521395</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>147.3472002825671</v>
+        <v>54.44663919424271</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>326.2575215723783</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>383.1282703720288</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -3080,16 +3082,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>94.29868824106237</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.8378640993551</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D35" t="n">
-        <v>232.0095242284297</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>63.18466222531525</v>
       </c>
       <c r="J37" t="n">
-        <v>50.15718953603345</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>204.7544541114488</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>323.9354549486739</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.0321874990911</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.7404008510704</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3757,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>27.14651080251604</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>238.4492667384849</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3828,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>101.2952820371726</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>120.1263698699165</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>305.7016686062385</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>154.9295378783019</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>120.206241369224</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>241.3843177271944</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>784.1002736601483</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>297.2027203719481</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4386,16 +4388,16 @@
         <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4410,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2858631377404</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2858631377404</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>254.2858631377404</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>254.2858631377404</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>254.2858631377404</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2858631377404</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>447.4001736958165</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2126.590628976322</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="C11" t="n">
         <v>1757.628112035911</v>
@@ -5045,10 +5047,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="W11" t="n">
-        <v>2126.590628976322</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="X11" t="n">
-        <v>2126.590628976322</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="Y11" t="n">
-        <v>2126.590628976322</v>
+        <v>1757.628112035911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D12" t="n">
         <v>665.4917812623953</v>
@@ -5130,40 +5132,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>2126.590628976322</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="D14" t="n">
         <v>1757.628112035911</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5321,7 +5323,7 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>2126.590628976322</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>881.8450797407235</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>707.3920504595965</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5355,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1719.90957245948</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.672215731278</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1257.820715525745</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.060416760791</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>900.847885737694</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5513,16 +5515,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2300.720167329198</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2117.525054467174</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1897.542295098752</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1643.75587298362</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1643.75587298362</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1290.987217713506</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1290.987217713506</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>900.847885737694</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>665.4917812623953</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5592,16 +5594,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
         <v>1637.630816213677</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>149.4494879287428</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>236.7148120170114</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1522.74358883188</v>
+        <v>739.3097946329265</v>
       </c>
       <c r="C20" t="n">
-        <v>1153.781071891469</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="D20" t="n">
-        <v>795.5153732847182</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="E20" t="n">
-        <v>795.5153732847182</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="F20" t="n">
-        <v>795.5153732847182</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2240.406316239573</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>2240.406316239573</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V20" t="n">
-        <v>1909.343428896002</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W20" t="n">
-        <v>1909.343428896002</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X20" t="n">
-        <v>1909.343428896002</v>
+        <v>739.3097946329265</v>
       </c>
       <c r="Y20" t="n">
-        <v>1909.343428896002</v>
+        <v>739.3097946329265</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>982.9090180005296</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>808.4559887194026</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>659.5215790581514</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>500.2841240526959</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>353.7495660795809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>215.6746802122729</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>108.640539748223</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5838,7 +5840,7 @@
         <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
         <v>1637.630816213677</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2284.306083296871</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U21" t="n">
-        <v>2056.125618951029</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V21" t="n">
-        <v>1820.973510719286</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W21" t="n">
-        <v>1566.736153991084</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X21" t="n">
-        <v>1358.884653785552</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y21" t="n">
-        <v>1151.124355020598</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E22" t="n">
-        <v>391.0727469424309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>244.1827994445206</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>244.1827994445206</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5935,25 +5937,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>391.0727469424309</v>
+        <v>422.7976409220548</v>
       </c>
       <c r="X22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.28953067257</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.28953067257</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6026,13 +6028,13 @@
         <v>2344.749822082217</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.981166812103</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X23" t="n">
-        <v>1978.889370736692</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="Y23" t="n">
-        <v>1978.889370736692</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
         <v>193.4295544147594</v>
@@ -6069,49 +6071,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>2261.905630104379</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>2092.969447176472</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>1942.852807764137</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>1942.852807764137</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>1942.852807764137</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>1942.852807764137</v>
       </c>
       <c r="H25" t="n">
         <v>1783.87624508755</v>
@@ -6184,13 +6186,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045256</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>2261.905630104379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1827.343101147238</v>
+        <v>2261.905630104379</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1174.017763155455</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C26" t="n">
-        <v>1174.017763155455</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D26" t="n">
-        <v>1174.017763155455</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E26" t="n">
-        <v>788.2295105572106</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F26" t="n">
-        <v>377.243605767603</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
         <v>377.243605767603</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6251,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1356.722640393067</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W26" t="n">
-        <v>1174.017763155455</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="X26" t="n">
-        <v>1174.017763155455</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1174.017763155455</v>
+        <v>1978.889370736692</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>665.1949245686499</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>490.7418952875228</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>490.7418952875228</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E27" t="n">
-        <v>331.5044402820673</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>301.1451777008733</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0702918335654</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>56.03615136951544</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,22 +6308,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1966.591989864992</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1738.411525519149</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1503.259417287406</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1249.022060559205</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1041.170560353672</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>833.410261588718</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2123.957242938686</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>2123.957242938686</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>1973.840603526351</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>1825.927509943957</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
         <v>1783.87624508755</v>
@@ -6415,19 +6417,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>2123.957242938686</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1539.917753255092</v>
+        <v>1771.998407443681</v>
       </c>
       <c r="C29" t="n">
-        <v>1539.917753255092</v>
+        <v>1771.998407443681</v>
       </c>
       <c r="D29" t="n">
-        <v>1539.917753255092</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E29" t="n">
-        <v>1154.129500656847</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F29" t="n">
         <v>960.8539546480588</v>
@@ -6494,19 +6496,19 @@
         <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>1870.980640598662</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V29" t="n">
-        <v>1539.917753255092</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W29" t="n">
-        <v>1539.917753255092</v>
+        <v>1771.998407443681</v>
       </c>
       <c r="X29" t="n">
-        <v>1539.917753255092</v>
+        <v>1771.998407443681</v>
       </c>
       <c r="Y29" t="n">
-        <v>1539.917753255092</v>
+        <v>1771.998407443681</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>783.3663200545602</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>608.9132907734332</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>459.978881112182</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>300.7414261067265</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>300.7414261067265</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>162.6665402394185</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,52 +6542,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1856.582921005059</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V30" t="n">
-        <v>1621.430812773317</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.193456045115</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>1159.341955839582</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>951.5816570746283</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>195.7305522826212</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T31" t="n">
-        <v>46.89499644164432</v>
+        <v>2073.057390341627</v>
       </c>
       <c r="U31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="D32" t="n">
-        <v>929.5804400319828</v>
+        <v>1757.62811203591</v>
       </c>
       <c r="E32" t="n">
-        <v>929.5804400319828</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F32" t="n">
-        <v>929.5804400319828</v>
+        <v>960.8539546480583</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>542.5821871309432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>212.2335778049845</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915531</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,7 +6721,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6728,22 +6730,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="33">
@@ -6777,49 +6779,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1364.946057430374</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y33" t="n">
         <v>1157.094557224842</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6886,22 +6888,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C35" t="n">
-        <v>1991.981166812102</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D35" t="n">
         <v>1757.628112035911</v>
@@ -6974,13 +6976,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y35" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
         <v>46.89499644164432</v>
@@ -7026,13 +7028,13 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.55882425581953</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.55882425581953</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="D37" t="n">
-        <v>97.55882425581953</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="E37" t="n">
-        <v>97.55882425581953</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="F37" t="n">
-        <v>97.55882425581953</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="G37" t="n">
-        <v>97.55882425581953</v>
+        <v>2006.675698900819</v>
       </c>
       <c r="H37" t="n">
-        <v>97.55882425581953</v>
+        <v>1847.699136224232</v>
       </c>
       <c r="I37" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.55882425581953</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2335778049849</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2335778049849</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2335778049849</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2335778049849</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7175,10 +7177,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2137.927141161561</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>1884.140719046428</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>1553.077831702858</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>1200.309176432743</v>
       </c>
       <c r="X38" t="n">
-        <v>602.3729097807966</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2335778049849</v>
+        <v>826.8434181716636</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7253,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7360,22 +7362,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>564.3017173766223</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>564.3017173766223</v>
+        <v>460.5560473241179</v>
       </c>
       <c r="V40" t="n">
-        <v>564.3017173766223</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="W40" t="n">
-        <v>274.8845473396617</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2016.589854876113</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="C41" t="n">
-        <v>1647.627337935701</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D41" t="n">
-        <v>1289.361639328951</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E41" t="n">
-        <v>903.5733867307065</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F41" t="n">
-        <v>492.5874819410989</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G41" t="n">
-        <v>74.31571442398376</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7436,25 +7438,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2016.589854876113</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V41" t="n">
-        <v>2016.589854876113</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.589854876113</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="X41" t="n">
-        <v>2016.589854876113</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="Y41" t="n">
-        <v>2016.589854876113</v>
+        <v>1041.491250111708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,49 +7493,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1933.992884499886</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C43" t="n">
-        <v>1933.992884499886</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="V43" t="n">
-        <v>2223.410054536846</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="W43" t="n">
-        <v>1933.992884499886</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X43" t="n">
-        <v>1933.992884499886</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y43" t="n">
-        <v>1933.992884499886</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>741.4728132886144</v>
+        <v>581.1960947453966</v>
       </c>
       <c r="C44" t="n">
-        <v>741.4728132886144</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="D44" t="n">
-        <v>741.4728132886144</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E44" t="n">
-        <v>355.6845606903701</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F44" t="n">
-        <v>355.6845606903701</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>1870.980640598662</v>
+        <v>1710.703922055444</v>
       </c>
       <c r="V44" t="n">
-        <v>1870.980640598662</v>
+        <v>1710.703922055444</v>
       </c>
       <c r="W44" t="n">
-        <v>1518.211985328548</v>
+        <v>1357.93526678533</v>
       </c>
       <c r="X44" t="n">
-        <v>1518.211985328548</v>
+        <v>1357.93526678533</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.072653352736</v>
+        <v>967.7959348095185</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,10 +7754,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U45" t="n">
         <v>2062.095821155272</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.8311793695513</v>
+        <v>363.946030277528</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>363.946030277528</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>363.946030277528</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="X46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="Y46" t="n">
-        <v>397.479644199791</v>
+        <v>363.946030277528</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>462.7376461954051</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954051</v>
       </c>
       <c r="N21" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,7 +11141,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>142.7739680963409</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2633675425782</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>42.92542614420708</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23425,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>170.2603374812188</v>
       </c>
     </row>
     <row r="15">
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23631,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>97.49397208930154</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
     </row>
     <row r="16">
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>78.36245510647004</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23732,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>30.04045143457297</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.92542614420708</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>68.73977323312569</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>55.85785047759339</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23935,16 +23937,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>37.69782020388197</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>170.5125603440446</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>114.4828609905204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>5.910500182201396</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>101.150197705865</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24175,7 +24177,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.4017751474781</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7601842395122</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>356.7702225638122</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24291,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.7997926828459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.6939053309785</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>168.3631402521767</v>
+        <v>314.7913803554787</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>57.98884467712185</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>42.63153801739909</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>103.7902958150879</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24655,19 +24657,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>340.4564491669904</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>215.5332551930108</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.38855875532725</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>70.43910215024485</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>78.27223734092829</v>
+        <v>171.1727984292527</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>28.42552004830469</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30.96077946991517</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>54.06789032788008</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25126,13 +25128,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>208.7815735241403</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6735173922533</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>75.89366340357633</v>
       </c>
       <c r="J37" t="n">
-        <v>4.711602100168363</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -25409,7 +25411,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.0284776632887</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>45.79564572979518</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25600,19 +25602,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>182.5872501244043</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>140.5489329504657</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>299.8986124301831</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>110.7917019789281</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
@@ -25837,13 +25839,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>124.3241555863228</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0112734539115</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>108.3873812357054</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>96.31902001567926</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25992,13 +25994,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512195</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26077,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>44.90501607434172</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988183</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>563944.7659988183</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>563944.7659988182</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>563944.7659988183</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563944.7659988183</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="E2" t="n">
+        <v>370126.5396699015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>370126.5396699014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>370126.5396699014</v>
+      </c>
+      <c r="H2" t="n">
         <v>370126.5396699012</v>
-      </c>
-      <c r="F2" t="n">
-        <v>370126.5396699012</v>
-      </c>
-      <c r="G2" t="n">
-        <v>370126.5396699013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>370126.5396699011</v>
       </c>
       <c r="I2" t="n">
         <v>370126.5396699014</v>
@@ -26341,19 +26343,19 @@
         <v>370126.5396699014</v>
       </c>
       <c r="L2" t="n">
+        <v>370126.5396699015</v>
+      </c>
+      <c r="M2" t="n">
         <v>370126.5396699012</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>370126.5396699014</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>370126.5396699011</v>
+      </c>
+      <c r="P2" t="n">
         <v>370126.5396699013</v>
-      </c>
-      <c r="O2" t="n">
-        <v>370126.5396699013</v>
-      </c>
-      <c r="P2" t="n">
-        <v>370126.5396699014</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26448,10 +26450,10 @@
         <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="N4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
         <v>9200.106879687155</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158185.8999058867</v>
+        <v>158185.8999058871</v>
       </c>
       <c r="C6" t="n">
-        <v>238955.3314374349</v>
+        <v>238955.3314374347</v>
       </c>
       <c r="D6" t="n">
-        <v>238955.3314374349</v>
+        <v>238955.3314374346</v>
       </c>
       <c r="E6" t="n">
-        <v>-26907.63211418514</v>
+        <v>-26907.6321141849</v>
       </c>
       <c r="F6" t="n">
+        <v>318704.7106647677</v>
+      </c>
+      <c r="G6" t="n">
+        <v>318704.7106647677</v>
+      </c>
+      <c r="H6" t="n">
         <v>318704.7106647675</v>
-      </c>
-      <c r="G6" t="n">
-        <v>318704.7106647676</v>
-      </c>
-      <c r="H6" t="n">
-        <v>318704.7106647674</v>
       </c>
       <c r="I6" t="n">
         <v>318704.7106647677</v>
@@ -26549,19 +26551,19 @@
         <v>318704.7106647677</v>
       </c>
       <c r="L6" t="n">
-        <v>318704.7106647675</v>
+        <v>318704.7106647678</v>
       </c>
       <c r="M6" t="n">
-        <v>232686.1768446917</v>
+        <v>232686.1768446915</v>
       </c>
       <c r="N6" t="n">
+        <v>318704.7106647677</v>
+      </c>
+      <c r="O6" t="n">
+        <v>318704.7106647674</v>
+      </c>
+      <c r="P6" t="n">
         <v>318704.7106647676</v>
-      </c>
-      <c r="O6" t="n">
-        <v>318704.7106647676</v>
-      </c>
-      <c r="P6" t="n">
-        <v>318704.7106647677</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27388,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>149.5949454381519</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>168.8745412198571</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.509559394752</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>32.98924717753579</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>36.26901108812089</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>87.28582189465749</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27904,19 +27906,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>89.18881746275855</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>14.31384691677781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>71.64844008794813</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35735,7 +35737,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35744,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35969,10 +35971,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>485.1417330183086</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36206,10 +36208,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183086</v>
       </c>
       <c r="N21" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36437,7 +36439,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36446,7 +36448,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36692,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,10 +37633,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084829.924585806</v>
+        <v>2043006.142916799</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584667</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -664,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.42556848774763</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>9.436125848572772</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>50.29171516770226</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>145.5147652547678</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>99.52914681518099</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>175.5171288722966</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>134.0342556893562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>319.6665097099691</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4745897976403</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.6077575056603</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>127.4055280274469</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.5544594002518</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>232.1565906735949</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.9776011748348</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.6278242490684</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>43.58935820548816</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>24.17628351264067</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>78.70529233151306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1979,13 +1979,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>241.3925416193483</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>101.5289465722275</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>388.9701345428937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>156.5325628886545</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="T21" t="n">
-        <v>144.1648043931067</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>183.1212231891129</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>123.5544594002518</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>263.5127075314954</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>375.4177806149873</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>111.5887103733622</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.01575005805863</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>137.9212655058198</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>34.44958836193425</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2651,10 +2651,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.049743378592401</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>7.470667384472012</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.19726042970139</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>14.2265924536926</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.8459209651673</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>67.30996878196353</v>
       </c>
       <c r="U30" t="n">
-        <v>155.4595575521395</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>100.3242214789874</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>54.44663919424271</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>326.2575215723783</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>367.8571125332463</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3158,10 +3158,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>141.5345653824373</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>94.29868824106237</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>17.6149096254305</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>329.7718398646325</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>22.91471389864773</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>9.090676859747658</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.18466222531525</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.7544541114488</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>129.5840487974523</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.7404008510704</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>162.1086249847264</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>216.7832747116599</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>238.4492667384849</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>12.04656972417572</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>101.2952820371726</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.5784911624466</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>154.9295378783019</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>198.3125165875166</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>122.5415447766139</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>241.3843177271944</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5825927271064</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="E2" t="n">
-        <v>802.5825927271064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F2" t="n">
-        <v>559.1338160830064</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>315.6850394389064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.90796037760316</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W3" t="n">
-        <v>23.90796037760316</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X3" t="n">
-        <v>23.90796037760316</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.90796037760316</v>
+        <v>417.2810673432945</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>772.0302844130649</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>772.0302844130649</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>772.0302844130649</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>772.0302844130649</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>528.5815077689649</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>817.0725441421839</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>573.6237674980839</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
-        <v>365.7722672925511</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>494.3473184075753</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>582.7883107557723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>447.4001736958165</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1757.628112035911</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C11" t="n">
-        <v>1757.628112035911</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1757.628112035911</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1757.628112035911</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1757.628112035911</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1757.628112035911</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1757.628112035911</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.4917812623953</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C12" t="n">
-        <v>665.4917812623953</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5150,22 +5150,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5232,19 +5232,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2126.590628976322</v>
+        <v>988.7710439288505</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.628112035911</v>
+        <v>988.7710439288505</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1378.910375904662</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1378.910375904662</v>
       </c>
       <c r="Y14" t="n">
-        <v>2126.590628976322</v>
+        <v>988.7710439288505</v>
       </c>
     </row>
     <row r="15">
@@ -5357,49 +5357,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.95990094567</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
         <v>1157.094557224842</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I16" t="n">
         <v>46.89499644164432</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>195.7305522826212</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7305522826212</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>900.847885737694</v>
+        <v>1933.729493621488</v>
       </c>
       <c r="C17" t="n">
-        <v>900.847885737694</v>
+        <v>1564.766976681076</v>
       </c>
       <c r="D17" t="n">
-        <v>542.5821871309436</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E17" t="n">
-        <v>542.5821871309436</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5521,10 +5521,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2300.720167329198</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2117.525054467174</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1897.542295098752</v>
+        <v>2320.32933368561</v>
       </c>
       <c r="U17" t="n">
-        <v>1643.75587298362</v>
+        <v>2320.32933368561</v>
       </c>
       <c r="V17" t="n">
-        <v>1643.75587298362</v>
+        <v>2320.32933368561</v>
       </c>
       <c r="W17" t="n">
-        <v>1290.987217713506</v>
+        <v>2320.32933368561</v>
       </c>
       <c r="X17" t="n">
-        <v>1290.987217713506</v>
+        <v>2320.32933368561</v>
       </c>
       <c r="Y17" t="n">
-        <v>900.847885737694</v>
+        <v>2320.32933368561</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D18" t="n">
-        <v>368.1794403896317</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E18" t="n">
-        <v>368.1794403896317</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5606,40 +5606,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1748.821460805059</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>149.4494879287428</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5703,22 +5703,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>318.5874281822333</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>739.3097946329265</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C20" t="n">
-        <v>370.3472776925148</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="D20" t="n">
-        <v>370.3472776925148</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="E20" t="n">
-        <v>370.3472776925148</v>
+        <v>439.7941222425471</v>
       </c>
       <c r="F20" t="n">
-        <v>370.3472776925148</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>370.3472776925148</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>1796.607095507691</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>1465.54420816412</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>1112.775552894006</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>739.3097946329265</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y20" t="n">
-        <v>739.3097946329265</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="T21" t="n">
-        <v>1977.451513658935</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>194.8080900240374</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C22" t="n">
-        <v>194.8080900240374</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8080900240374</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F22" t="n">
         <v>46.89499644164432</v>
@@ -5943,19 +5943,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W22" t="n">
-        <v>422.7976409220548</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X22" t="n">
-        <v>194.8080900240374</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.8080900240374</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.544891781203</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="C23" t="n">
-        <v>928.3704397291879</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="D23" t="n">
-        <v>928.3704397291879</v>
+        <v>1222.879033238574</v>
       </c>
       <c r="E23" t="n">
-        <v>542.5821871309436</v>
+        <v>837.09078064033</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5821871309436</v>
+        <v>426.1048758507224</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6013,25 +6013,25 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.284063821137</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y23" t="n">
         <v>1581.144731845325</v>
@@ -6071,19 +6071,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
         <v>2193.291384540003</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2261.905630104379</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C25" t="n">
-        <v>2092.969447176472</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D25" t="n">
-        <v>1942.852807764137</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E25" t="n">
-        <v>1942.852807764137</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F25" t="n">
-        <v>1942.852807764137</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G25" t="n">
-        <v>1942.852807764137</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>495.052704372308</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>495.052704372308</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X25" t="n">
-        <v>2261.905630104379</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y25" t="n">
-        <v>2261.905630104379</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1592.28953067257</v>
+        <v>1578.183232104166</v>
       </c>
       <c r="C26" t="n">
-        <v>1592.28953067257</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D26" t="n">
-        <v>1592.28953067257</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E26" t="n">
-        <v>1206.501278074326</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6253,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2205.435412480378</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2205.435412480378</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1951.648990365246</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>1951.648990365246</v>
       </c>
       <c r="W26" t="n">
-        <v>1978.889370736692</v>
+        <v>1951.648990365246</v>
       </c>
       <c r="X26" t="n">
-        <v>1978.889370736692</v>
+        <v>1578.183232104166</v>
       </c>
       <c r="Y26" t="n">
-        <v>1978.889370736692</v>
+        <v>1578.183232104166</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D27" t="n">
-        <v>447.6797356739884</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E27" t="n">
-        <v>447.6797356739884</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F27" t="n">
-        <v>301.1451777008733</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G27" t="n">
-        <v>163.0702918335654</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>56.03615136951544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6308,22 +6308,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6335,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>438.8323905084034</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>438.8323905084034</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>290.9192969260102</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>290.9192969260102</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2055.568676828139</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>1800.884188622252</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1771.998407443681</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C29" t="n">
-        <v>1771.998407443681</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.628112035911</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E29" t="n">
         <v>1371.839859437666</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2331.774144339623</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="T29" t="n">
-        <v>2124.767062713795</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="U29" t="n">
-        <v>2124.767062713795</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="V29" t="n">
-        <v>2124.767062713795</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="W29" t="n">
-        <v>1771.998407443681</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="X29" t="n">
-        <v>1771.998407443681</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="Y29" t="n">
-        <v>1771.998407443681</v>
+        <v>1758.439699501788</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1983.973569036802</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U30" t="n">
-        <v>1826.94371292353</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>438.8323905084034</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2128.053995588337</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2073.057390341627</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2087.181164129222</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="C32" t="n">
-        <v>2087.181164129222</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.62811203591</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="E32" t="n">
-        <v>1371.839859437666</v>
+        <v>829.4537421739249</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480583</v>
+        <v>418.4678373843173</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049845</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W32" t="n">
-        <v>2087.181164129222</v>
+        <v>1991.981166812103</v>
       </c>
       <c r="X32" t="n">
-        <v>2087.181164129222</v>
+        <v>1991.981166812103</v>
       </c>
       <c r="Y32" t="n">
-        <v>2087.181164129222</v>
+        <v>1601.841834836291</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D33" t="n">
         <v>665.4917812623953</v>
@@ -6791,7 +6791,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
         <v>1887.88481026779</v>
@@ -6806,25 +6806,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2141.341875839864</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1913.161411494021</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1678.009303262279</v>
       </c>
       <c r="W33" t="n">
-        <v>1364.946057430374</v>
+        <v>1423.771946534077</v>
       </c>
       <c r="X33" t="n">
-        <v>1157.094557224842</v>
+        <v>1215.920446328544</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="C34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="D34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="E34" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F34" t="n">
-        <v>515.4926565726222</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G34" t="n">
-        <v>346.3547163191317</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H34" t="n">
         <v>187.3781536425449</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>589.9757354308249</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.7685734363102</v>
+        <v>335.291247224938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2344.749822082216</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="C35" t="n">
-        <v>2115.893810642661</v>
+        <v>1149.249468388136</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.628112035911</v>
+        <v>790.9837697813857</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>790.9837697813857</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>379.9978649917782</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6967,22 +6967,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.749822082216</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="X35" t="n">
-        <v>2344.749822082216</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="Y35" t="n">
-        <v>2344.749822082216</v>
+        <v>1518.211985328548</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7019,49 +7019,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1977.451513658935</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1749.271049313092</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1514.118941081349</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1259.881584353148</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1052.030084147615</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>844.2697853826612</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C37" t="n">
-        <v>2175.813639154309</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="D37" t="n">
-        <v>2175.813639154309</v>
+        <v>202.9674458180877</v>
       </c>
       <c r="E37" t="n">
-        <v>2175.813639154309</v>
+        <v>202.9674458180877</v>
       </c>
       <c r="F37" t="n">
-        <v>2175.813639154309</v>
+        <v>56.07749832017731</v>
       </c>
       <c r="G37" t="n">
-        <v>2006.675698900819</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>1847.699136224232</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W37" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X37" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y37" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>826.8434181716636</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C38" t="n">
-        <v>457.8809012312519</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D38" t="n">
-        <v>457.8809012312519</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E38" t="n">
         <v>457.8809012312519</v>
@@ -7174,10 +7174,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
         <v>762.591673824455</v>
@@ -7204,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.927141161561</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U38" t="n">
-        <v>1884.140719046428</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V38" t="n">
-        <v>1553.077831702858</v>
+        <v>1993.874084130509</v>
       </c>
       <c r="W38" t="n">
-        <v>1200.309176432743</v>
+        <v>1993.874084130509</v>
       </c>
       <c r="X38" t="n">
-        <v>826.8434181716636</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="Y38" t="n">
-        <v>826.8434181716636</v>
+        <v>1230.268993893618</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
         <v>46.89499644164432</v>
@@ -7253,16 +7253,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7286,19 +7286,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7365,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>460.5560473241179</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>205.8715591182311</v>
+        <v>444.0224875931522</v>
       </c>
       <c r="X40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1041.491250111708</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C41" t="n">
-        <v>1041.491250111708</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D41" t="n">
-        <v>1041.491250111708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.491250111708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7438,25 +7438,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>1831.420512863571</v>
       </c>
       <c r="V41" t="n">
-        <v>1282.349095302096</v>
+        <v>1500.357625520001</v>
       </c>
       <c r="W41" t="n">
-        <v>1041.491250111708</v>
+        <v>1147.588970249886</v>
       </c>
       <c r="X41" t="n">
-        <v>1041.491250111708</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="Y41" t="n">
-        <v>1041.491250111708</v>
+        <v>774.1232119888066</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.0329366951349</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="C43" t="n">
-        <v>216.0329366951349</v>
+        <v>218.0398113648732</v>
       </c>
       <c r="D43" t="n">
-        <v>216.0329366951349</v>
+        <v>218.0398113648732</v>
       </c>
       <c r="E43" t="n">
-        <v>216.0329366951349</v>
+        <v>218.0398113648732</v>
       </c>
       <c r="F43" t="n">
-        <v>216.0329366951349</v>
+        <v>218.0398113648732</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7572,7 +7572,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7599,22 +7599,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>505.4501067320955</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>505.4501067320955</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>505.4501067320955</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.0329366951349</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>581.1960947453966</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C44" t="n">
-        <v>212.2335778049849</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7675,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>1710.703922055444</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>1710.703922055444</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>1357.93526678533</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>1357.93526678533</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.7959348095185</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7730,49 +7730,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E46" t="n">
-        <v>216.0329366951349</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="F46" t="n">
-        <v>216.0329366951349</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y46" t="n">
-        <v>363.946030277528</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>415.7693643006697</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,10 +9956,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,10 +10439,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,7 +10667,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>323.3866360392488</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>62.26386036229269</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>142.7739680963409</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.92542614420708</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>98.49313167493744</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>22.87950324631733</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23472,7 +23472,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>117.0843780438181</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>170.2603374812188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>161.2041559328689</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -23673,7 +23673,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23712,13 +23712,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>78.36245510647004</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.04045143457297</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>193.6066482620968</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>68.73977323312569</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>10.30244154157134</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>55.85785047759339</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23943,16 +23943,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>209.0152380591952</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>17.90591119881771</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>170.5125603440446</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>38.65383027744564</v>
       </c>
       <c r="T21" t="n">
-        <v>53.38246657340289</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24183,19 +24183,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>103.4017751474781</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>95.03019395184295</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>101.7601842395122</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>38.67126922695667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>102.9401578555783</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.6939053309785</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24493,22 +24493,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>43.44189622758407</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>314.7913803554787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>57.98884467712185</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>190.0766035820376</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>83.24930042125423</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24657,13 +24657,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>269.6851342372356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>340.4564491669904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>60.78388867489382</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>130.2373021845461</v>
       </c>
       <c r="U30" t="n">
-        <v>70.43910215024485</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>57.06257557083343</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24888,13 +24888,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>171.1727984292527</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>28.42552004830469</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>46.2319373086977</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>56.01270558407228</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>268.6744241761057</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>84.31720997731145</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>158.355883991208</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>75.89366340357633</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25371,7 +25371,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>13.0284776632887</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>198.1682096726826</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288916</v>
@@ -25605,16 +25605,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5489329504657</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>124.4143733518646</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>34.46528318232126</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>110.7917019789281</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25727,7 +25727,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.3999911267799</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25839,7 +25839,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>124.3241555863228</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.1045504582364</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>96.31902001567926</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>53.38246657340304</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.90501607434169</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26079,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>44.90501607434172</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563944.7659988183</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563944.7659988182</v>
+        <v>563944.765998818</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988183</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988183</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563944.7659988182</v>
+        <v>563944.7659988181</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563944.7659988181</v>
+        <v>563944.7659988182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="F2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="G2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="H2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="I2" t="n">
         <v>370126.5396699015</v>
       </c>
-      <c r="F2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="G2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>370126.5396699012</v>
       </c>
-      <c r="I2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="J2" t="n">
-        <v>370126.5396699014</v>
-      </c>
       <c r="K2" t="n">
-        <v>370126.5396699014</v>
+        <v>370126.5396699012</v>
       </c>
       <c r="L2" t="n">
-        <v>370126.5396699015</v>
+        <v>370126.5396699013</v>
       </c>
       <c r="M2" t="n">
         <v>370126.5396699012</v>
       </c>
       <c r="N2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="O2" t="n">
         <v>370126.5396699014</v>
       </c>
-      <c r="O2" t="n">
-        <v>370126.5396699011</v>
-      </c>
       <c r="P2" t="n">
-        <v>370126.5396699013</v>
+        <v>370126.5396699012</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158185.8999058871</v>
+        <v>158185.8999058869</v>
       </c>
       <c r="C6" t="n">
         <v>238955.3314374347</v>
       </c>
       <c r="D6" t="n">
-        <v>238955.3314374346</v>
+        <v>238955.3314374349</v>
       </c>
       <c r="E6" t="n">
-        <v>-26907.6321141849</v>
+        <v>-34214.87137258145</v>
       </c>
       <c r="F6" t="n">
-        <v>318704.7106647677</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="G6" t="n">
-        <v>318704.7106647677</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="H6" t="n">
-        <v>318704.7106647675</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="I6" t="n">
-        <v>318704.7106647677</v>
+        <v>311397.4714063714</v>
       </c>
       <c r="J6" t="n">
-        <v>255644.7680656614</v>
+        <v>248337.528807265</v>
       </c>
       <c r="K6" t="n">
-        <v>318704.7106647677</v>
+        <v>311397.4714063712</v>
       </c>
       <c r="L6" t="n">
-        <v>318704.7106647678</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="M6" t="n">
-        <v>232686.1768446915</v>
+        <v>225378.9375862952</v>
       </c>
       <c r="N6" t="n">
-        <v>318704.7106647677</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="O6" t="n">
-        <v>318704.7106647674</v>
+        <v>311397.4714063713</v>
       </c>
       <c r="P6" t="n">
-        <v>318704.7106647676</v>
+        <v>311397.4714063712</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27384,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1019827542801</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>158.0503210826583</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>168.8745412198571</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>196.2465699287316</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>332.4421264957783</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>32.98924717753579</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>87.28582189465749</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>106.2438383882965</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>111.5091262846236</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>155.2128009177461</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>76.17785428862305</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.64844008794813</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31779,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31849,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35424,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35746,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>453.3206074199177</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36454,7 +36454,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q24" t="n">
         <v>152.98832074971</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36928,10 +36928,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37402,10 +37402,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
         <v>231.4844522093428</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>360.9378791584968</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
